--- a/data/long_razon/BESCORE_R-Urba-long_razon.xlsx
+++ b/data/long_razon/BESCORE_R-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -678,509 +683,145 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
+      <c r="O4" s="5" t="inlineStr"/>
+      <c r="P4" s="5" t="inlineStr"/>
+      <c r="Q4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
+      <c r="O5" s="5" t="inlineStr"/>
+      <c r="P5" s="5" t="inlineStr"/>
+      <c r="Q5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+      <c r="O6" s="5" t="inlineStr"/>
+      <c r="P6" s="5" t="inlineStr"/>
+      <c r="Q6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
+      <c r="O7" s="5" t="inlineStr"/>
+      <c r="P7" s="5" t="inlineStr"/>
+      <c r="Q7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
+      <c r="O8" s="5" t="inlineStr"/>
+      <c r="P8" s="5" t="inlineStr"/>
+      <c r="Q8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
+      <c r="O9" s="5" t="inlineStr"/>
+      <c r="P9" s="5" t="inlineStr"/>
+      <c r="Q9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1188,167 +829,143 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
+      <c r="O10" s="5" t="inlineStr"/>
+      <c r="P10" s="5" t="inlineStr"/>
+      <c r="Q10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
+      <c r="O11" s="5" t="inlineStr"/>
+      <c r="P11" s="5" t="inlineStr"/>
+      <c r="Q11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+      <c r="O12" s="5" t="inlineStr"/>
+      <c r="P12" s="5" t="inlineStr"/>
+      <c r="Q12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
+      <c r="O13" s="5" t="inlineStr"/>
+      <c r="P13" s="5" t="inlineStr"/>
+      <c r="Q13" s="5" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+      <c r="O14" s="5" t="inlineStr"/>
+      <c r="P14" s="5" t="inlineStr"/>
+      <c r="Q14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+      <c r="O15" s="5" t="inlineStr"/>
+      <c r="P15" s="5" t="inlineStr"/>
+      <c r="Q15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1356,14 +973,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/BESCORE_R-Urba-long_razon.xlsx
+++ b/data/long_razon/BESCORE_R-Urba-long_razon.xlsx
@@ -683,21 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.5492522440099558</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.6385433189019107</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.0172461514623966</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.03905267744044122</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.2911841816281254</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.4837674738869925</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1.248542378877067</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.01135215354143532</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.03752101015600109</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.1330608231366199</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.5157118313527421</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.9213451652442395</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>-0.002647749858236721</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>-0.002875047696708924</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>0.2075833800191687</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -706,21 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.6168852511582784</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.3351544646424744</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.1571526100940395</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.1387514116143921</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.05882883671440568</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.554711865480828</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.9416576908542165</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.1125523496529848</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.1810802569163211</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.03048751483009055</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.5689963653421438</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.6814883313307709</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.09798650787344761</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>-0.11803848597169</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>0.07393187581831696</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -729,21 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>-0.4621373651197727</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.9670202390545879</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.1682299754823851</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.2436259279812445</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.5705768066462829</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-0.4035905013874554</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.679630304819999</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.1424226342091773</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.1303928064520481</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.3500506683370986</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>-0.4563732988457354</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1.198177104815189</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.1011613040894031</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0.1177342358198327</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>0.3857252252446464</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -756,21 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.470385177758134</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.670285142749019</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.1893251061449384</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.02705743846508752</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.226942594821527</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.4729746472912407</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.3919521591354463</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.1430784703575994</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.02711975925586113</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.3190073380367054</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.4716831327996682</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.523378787978856</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>0.007949969485209436</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>-0.0004759018834703011</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>-0.2707344527939443</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -779,21 +899,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.5656245210747464</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.3709304526279339</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.002281649755536865</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.2112095763758793</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.4857484732756049</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.5558349685151845</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.1698201008940701</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.2565318580027369</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.1191578137971416</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.5134996254768103</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.5345814129787133</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0.3271705478210518</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.103732340498608</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>-0.1258664745913904</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>-0.4373558666872964</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -802,21 +952,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>-0.3265139440064176</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.095059422215278</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4198871132732505</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2086254893753635</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.08151278746115785</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-0.374865073722095</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.6233769466090546</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>-0.01935779724852503</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.2539732824484687</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>-0.03185085186021941</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>-0.3927703594677288</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.7523659594431907</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.138952789945427</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>0.1411532935334176</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>-0.08307044614029409</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,20 +1009,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.3484483079433928</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.6892975985578574</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.6359314630515286</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.565809791205261</v>
+      </c>
       <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>-0.5119971844032474</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>1.175777797640977</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.412938400626408</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.3511343352664049</v>
+      </c>
       <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="n">
+        <v>-0.4356641298418383</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.8974192575410505</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0.5176685526662087</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0.2983245329655615</v>
+      </c>
       <c r="Q10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -852,20 +1056,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.5554531309985732</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1495019280309758</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.161564048167866</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.6016254356846485</v>
+      </c>
       <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-0.668345191397507</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.5588515758503062</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0.06404066479240714</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.5535341926987314</v>
+      </c>
       <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="n">
+        <v>-0.5630519579205302</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.451806595717823</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>0.2325275448056219</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.04657197800310895</v>
+      </c>
       <c r="Q11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -875,20 +1103,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>-0.08376543406124932</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.59529921278131</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.393483842751245</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>3.432286314787699</v>
+      </c>
       <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>-0.3284722651850242</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>2.39466365508426</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.9147311775113827</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>-0.09670811705110678</v>
+      </c>
       <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="n">
+        <v>-0.2735877573730183</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.465397500349129</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.9426356559072965</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.8730144499481867</v>
+      </c>
       <c r="Q12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -902,21 +1154,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.4973606060824473</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.657405225949547</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1218312666773424</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.128905028928547</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.135529772926811</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.4827058790165455</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.8423445303714354</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.01525496830007993</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.05478851964559693</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.01653916457207369</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.489885220171326</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.7475164432345657</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>0.0496736374578713</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0.03035318233289785</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>0.07437640841362513</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -925,21 +1207,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.5642399392710189</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.4459953558264527</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.002619132061020366</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.02509613511643196</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.03365509564656979</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.5464632883745785</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.6538860702447942</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.101354612595429</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.1547851368171965</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.1223969705624519</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.5307380812273279</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.594892292213465</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.01985973221109676</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>-0.06140543953915024</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>-0.04438770995769441</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -948,21 +1260,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>-0.4333707127129038</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.8982191457344355</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.2549594464088403</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.2947548468526144</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.3559406146720401</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-0.4292339077242277</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.062439516957128</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.07320186904747528</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.05198307966434974</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.1760636050309192</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>-0.4436741063161257</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.9075546475933866</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.1329718428364035</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.1171220276598261</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0.2079958987821718</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
